--- a/Data/8. Initial_Conditions/T0_Env_Carbonates.xlsx
+++ b/Data/8. Initial_Conditions/T0_Env_Carbonates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/8. Initial_Conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1A7C62-FBF8-4443-900D-03CE4B8DF6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B44885-C64E-CE4E-AE2E-88AB1EE6078A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41160" yWindow="2380" windowWidth="44660" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="N21" sqref="A1:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
